--- a/xingfa/doc/湖北兴发磷化工货位编号.xlsx
+++ b/xingfa/doc/湖北兴发磷化工货位编号.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Macintosh HD 2/自动化平库项目/项目/2017_006 宜昌兴发/开发用/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="440" windowWidth="25600" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="15" yWindow="435" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Location number" sheetId="1" r:id="rId1"/>
@@ -213,8 +208,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -260,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -272,16 +267,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -339,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -374,7 +372,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -551,488 +549,489 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:DN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BY9" workbookViewId="0">
-      <selection activeCell="CM3" sqref="CM3:CM49"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH3:AH11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="132" width="5" style="1" customWidth="1"/>
-    <col min="133" max="16384" width="10.83203125" style="1"/>
+    <col min="133" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:118">
+      <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AE1" s="5" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AE1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="6" t="s">
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
       <c r="BG1" s="4"/>
       <c r="BH1" s="4"/>
-      <c r="BI1" s="5" t="s">
+      <c r="BI1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BJ1" s="5"/>
-      <c r="BK1" s="5" t="s">
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="BL1" s="5"/>
-      <c r="BM1" s="5"/>
-      <c r="BN1" s="5"/>
-      <c r="BO1" s="5"/>
-      <c r="BP1" s="5"/>
-      <c r="BQ1" s="5"/>
-      <c r="BR1" s="5"/>
-      <c r="BS1" s="5"/>
-      <c r="BT1" s="5"/>
-      <c r="BU1" s="5"/>
-      <c r="BV1" s="5"/>
-      <c r="BW1" s="5"/>
-      <c r="BX1" s="5"/>
-      <c r="BY1" s="5"/>
-      <c r="BZ1" s="5"/>
-      <c r="CA1" s="5"/>
-      <c r="CB1" s="5"/>
-      <c r="CC1" s="5"/>
-      <c r="CD1" s="5"/>
-      <c r="CE1" s="5"/>
-      <c r="CF1" s="5"/>
-      <c r="CG1" s="5"/>
-      <c r="CH1" s="5"/>
-      <c r="CI1" s="5"/>
-      <c r="CJ1" s="5"/>
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="7"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
+      <c r="BR1" s="7"/>
+      <c r="BS1" s="7"/>
+      <c r="BT1" s="7"/>
+      <c r="BU1" s="7"/>
+      <c r="BV1" s="7"/>
+      <c r="BW1" s="7"/>
+      <c r="BX1" s="7"/>
+      <c r="BY1" s="7"/>
+      <c r="BZ1" s="7"/>
+      <c r="CA1" s="7"/>
+      <c r="CB1" s="7"/>
+      <c r="CC1" s="7"/>
+      <c r="CD1" s="7"/>
+      <c r="CE1" s="7"/>
+      <c r="CF1" s="7"/>
+      <c r="CG1" s="7"/>
+      <c r="CH1" s="7"/>
+      <c r="CI1" s="7"/>
+      <c r="CJ1" s="7"/>
       <c r="CK1" s="4"/>
       <c r="CL1" s="4"/>
-      <c r="CM1" s="5" t="s">
+      <c r="CM1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="CN1" s="5"/>
-      <c r="CO1" s="5" t="s">
+      <c r="CN1" s="7"/>
+      <c r="CO1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="CP1" s="5"/>
-      <c r="CQ1" s="5"/>
-      <c r="CR1" s="5"/>
-      <c r="CS1" s="5"/>
-      <c r="CT1" s="5"/>
-      <c r="CU1" s="5"/>
-      <c r="CV1" s="5"/>
-      <c r="CW1" s="5"/>
-      <c r="CX1" s="5"/>
-      <c r="CY1" s="5"/>
-      <c r="CZ1" s="5"/>
-      <c r="DA1" s="5"/>
-      <c r="DB1" s="5"/>
-      <c r="DC1" s="5"/>
-      <c r="DD1" s="5"/>
-      <c r="DE1" s="5"/>
-      <c r="DF1" s="5"/>
-      <c r="DG1" s="5"/>
-      <c r="DH1" s="5"/>
-      <c r="DI1" s="5"/>
-      <c r="DJ1" s="5"/>
-      <c r="DK1" s="5"/>
-      <c r="DL1" s="5"/>
-      <c r="DM1" s="5"/>
-      <c r="DN1" s="5"/>
+      <c r="CP1" s="7"/>
+      <c r="CQ1" s="7"/>
+      <c r="CR1" s="7"/>
+      <c r="CS1" s="7"/>
+      <c r="CT1" s="7"/>
+      <c r="CU1" s="7"/>
+      <c r="CV1" s="7"/>
+      <c r="CW1" s="7"/>
+      <c r="CX1" s="7"/>
+      <c r="CY1" s="7"/>
+      <c r="CZ1" s="7"/>
+      <c r="DA1" s="7"/>
+      <c r="DB1" s="7"/>
+      <c r="DC1" s="7"/>
+      <c r="DD1" s="7"/>
+      <c r="DE1" s="7"/>
+      <c r="DF1" s="7"/>
+      <c r="DG1" s="7"/>
+      <c r="DH1" s="7"/>
+      <c r="DI1" s="7"/>
+      <c r="DJ1" s="7"/>
+      <c r="DK1" s="7"/>
+      <c r="DL1" s="7"/>
+      <c r="DM1" s="7"/>
+      <c r="DN1" s="7"/>
     </row>
-    <row r="2" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="1:118">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="8" t="s">
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AL2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AO2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AP2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AR2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AS2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AT2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AU2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AV2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AW2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AX2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AY2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AZ2" s="8" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="BA2" s="8" t="s">
+      <c r="BA2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="BB2" s="8" t="s">
+      <c r="BB2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="8" t="s">
+      <c r="BC2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="BD2" s="8" t="s">
+      <c r="BD2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BE2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BF2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="8" t="s">
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BL2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="BM2" s="8" t="s">
+      <c r="BM2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BN2" s="8" t="s">
+      <c r="BN2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="BO2" s="8" t="s">
+      <c r="BO2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="BP2" s="8" t="s">
+      <c r="BP2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="BQ2" s="8" t="s">
+      <c r="BQ2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="BR2" s="8" t="s">
+      <c r="BR2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BS2" s="8" t="s">
+      <c r="BS2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BT2" s="8" t="s">
+      <c r="BT2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BU2" s="8" t="s">
+      <c r="BU2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BV2" s="8" t="s">
+      <c r="BV2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="BW2" s="8" t="s">
+      <c r="BW2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="BX2" s="8" t="s">
+      <c r="BX2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="BY2" s="8" t="s">
+      <c r="BY2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BZ2" s="8" t="s">
+      <c r="BZ2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="CA2" s="8" t="s">
+      <c r="CA2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="CB2" s="8" t="s">
+      <c r="CB2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="CC2" s="8" t="s">
+      <c r="CC2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="CD2" s="8" t="s">
+      <c r="CD2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CE2" s="8" t="s">
+      <c r="CE2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="CF2" s="8" t="s">
+      <c r="CF2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CG2" s="8" t="s">
+      <c r="CG2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="CH2" s="8" t="s">
+      <c r="CH2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="CI2" s="8" t="s">
+      <c r="CI2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="CJ2" s="8" t="s">
+      <c r="CJ2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="CK2" s="8"/>
-      <c r="CL2" s="8"/>
-      <c r="CM2" s="5"/>
-      <c r="CN2" s="5"/>
-      <c r="CO2" s="8" t="s">
+      <c r="CK2" s="6"/>
+      <c r="CL2" s="6"/>
+      <c r="CM2" s="7"/>
+      <c r="CN2" s="7"/>
+      <c r="CO2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="CP2" s="8" t="s">
+      <c r="CP2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="CQ2" s="8" t="s">
+      <c r="CQ2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CR2" s="8" t="s">
+      <c r="CR2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="CS2" s="8" t="s">
+      <c r="CS2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="CT2" s="8" t="s">
+      <c r="CT2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="CU2" s="8" t="s">
+      <c r="CU2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CV2" s="8" t="s">
+      <c r="CV2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CW2" s="8" t="s">
+      <c r="CW2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CX2" s="8" t="s">
+      <c r="CX2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CY2" s="8" t="s">
+      <c r="CY2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CZ2" s="8" t="s">
+      <c r="CZ2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="DA2" s="8" t="s">
+      <c r="DA2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="DB2" s="8" t="s">
+      <c r="DB2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="DC2" s="8" t="s">
+      <c r="DC2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="DD2" s="8" t="s">
+      <c r="DD2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="DE2" s="8" t="s">
+      <c r="DE2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="DF2" s="8" t="s">
+      <c r="DF2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="DG2" s="8" t="s">
+      <c r="DG2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="DH2" s="8" t="s">
+      <c r="DH2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="DI2" s="8" t="s">
+      <c r="DI2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="DJ2" s="8" t="s">
+      <c r="DJ2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="DK2" s="8" t="s">
+      <c r="DK2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="DL2" s="8" t="s">
+      <c r="DL2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="DM2" s="8" t="s">
+      <c r="DM2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="DN2" s="8" t="s">
+      <c r="DN2" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:118">
+      <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1041,8 +1040,8 @@
       <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>55</v>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>27</v>
@@ -1116,7 +1115,7 @@
       <c r="AB3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AE3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="AF3" s="1" t="s">
@@ -1125,8 +1124,8 @@
       <c r="AG3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AH3" s="4" t="s">
-        <v>27</v>
+      <c r="AH3" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="AI3" s="4" t="s">
         <v>27</v>
@@ -1202,7 +1201,7 @@
       </c>
       <c r="BG3" s="4"/>
       <c r="BH3" s="4"/>
-      <c r="BI3" s="7" t="s">
+      <c r="BI3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="BJ3" s="1" t="s">
@@ -1288,7 +1287,7 @@
       </c>
       <c r="CK3" s="4"/>
       <c r="CL3" s="4"/>
-      <c r="CM3" s="7" t="s">
+      <c r="CM3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="CN3" s="1" t="s">
@@ -1373,16 +1372,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:118">
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>27</v>
@@ -1456,15 +1455,15 @@
       <c r="AB4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE4" s="7"/>
+      <c r="AE4" s="8"/>
       <c r="AF4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AG4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AH4" s="4" t="s">
-        <v>27</v>
+      <c r="AH4" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="AI4" s="4" t="s">
         <v>27</v>
@@ -1540,7 +1539,7 @@
       </c>
       <c r="BG4" s="4"/>
       <c r="BH4" s="4"/>
-      <c r="BI4" s="7"/>
+      <c r="BI4" s="8"/>
       <c r="BJ4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1624,7 +1623,7 @@
       </c>
       <c r="CK4" s="4"/>
       <c r="CL4" s="4"/>
-      <c r="CM4" s="7"/>
+      <c r="CM4" s="8"/>
       <c r="CN4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1707,16 +1706,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:118">
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>27</v>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>27</v>
@@ -1790,15 +1789,15 @@
       <c r="AB5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE5" s="7"/>
+      <c r="AE5" s="8"/>
       <c r="AF5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AG5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AH5" s="4" t="s">
-        <v>27</v>
+      <c r="AH5" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="AI5" s="4" t="s">
         <v>27</v>
@@ -1874,7 +1873,7 @@
       </c>
       <c r="BG5" s="4"/>
       <c r="BH5" s="4"/>
-      <c r="BI5" s="7"/>
+      <c r="BI5" s="8"/>
       <c r="BJ5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1958,7 +1957,7 @@
       </c>
       <c r="CK5" s="4"/>
       <c r="CL5" s="4"/>
-      <c r="CM5" s="7"/>
+      <c r="CM5" s="8"/>
       <c r="CN5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2041,16 +2040,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:118">
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>27</v>
@@ -2124,15 +2123,15 @@
       <c r="AB6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE6" s="7"/>
+      <c r="AE6" s="8"/>
       <c r="AF6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AG6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AH6" s="4" t="s">
-        <v>27</v>
+      <c r="AH6" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="AI6" s="4" t="s">
         <v>27</v>
@@ -2208,7 +2207,7 @@
       </c>
       <c r="BG6" s="4"/>
       <c r="BH6" s="4"/>
-      <c r="BI6" s="7"/>
+      <c r="BI6" s="8"/>
       <c r="BJ6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2292,7 +2291,7 @@
       </c>
       <c r="CK6" s="4"/>
       <c r="CL6" s="4"/>
-      <c r="CM6" s="7"/>
+      <c r="CM6" s="8"/>
       <c r="CN6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2375,16 +2374,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:118">
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>27</v>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>27</v>
@@ -2458,15 +2457,15 @@
       <c r="AB7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE7" s="7"/>
+      <c r="AE7" s="8"/>
       <c r="AF7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AG7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AH7" s="4" t="s">
-        <v>27</v>
+      <c r="AH7" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="AI7" s="4" t="s">
         <v>27</v>
@@ -2542,7 +2541,7 @@
       </c>
       <c r="BG7" s="4"/>
       <c r="BH7" s="4"/>
-      <c r="BI7" s="7"/>
+      <c r="BI7" s="8"/>
       <c r="BJ7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2626,7 +2625,7 @@
       </c>
       <c r="CK7" s="4"/>
       <c r="CL7" s="4"/>
-      <c r="CM7" s="7"/>
+      <c r="CM7" s="8"/>
       <c r="CN7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2709,16 +2708,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:118">
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>27</v>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>27</v>
@@ -2792,15 +2791,15 @@
       <c r="AB8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE8" s="7"/>
+      <c r="AE8" s="8"/>
       <c r="AF8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AG8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AH8" s="4" t="s">
-        <v>27</v>
+      <c r="AH8" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="AI8" s="4" t="s">
         <v>27</v>
@@ -2876,7 +2875,7 @@
       </c>
       <c r="BG8" s="4"/>
       <c r="BH8" s="4"/>
-      <c r="BI8" s="7"/>
+      <c r="BI8" s="8"/>
       <c r="BJ8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2960,7 +2959,7 @@
       </c>
       <c r="CK8" s="4"/>
       <c r="CL8" s="4"/>
-      <c r="CM8" s="7"/>
+      <c r="CM8" s="8"/>
       <c r="CN8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3043,16 +3042,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:118">
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>27</v>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>27</v>
@@ -3126,15 +3125,15 @@
       <c r="AB9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE9" s="7"/>
+      <c r="AE9" s="8"/>
       <c r="AF9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AG9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AH9" s="4" t="s">
-        <v>27</v>
+      <c r="AH9" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="AI9" s="4" t="s">
         <v>27</v>
@@ -3210,7 +3209,7 @@
       </c>
       <c r="BG9" s="4"/>
       <c r="BH9" s="4"/>
-      <c r="BI9" s="7"/>
+      <c r="BI9" s="8"/>
       <c r="BJ9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3294,7 +3293,7 @@
       </c>
       <c r="CK9" s="4"/>
       <c r="CL9" s="4"/>
-      <c r="CM9" s="7"/>
+      <c r="CM9" s="8"/>
       <c r="CN9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3377,16 +3376,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:118">
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>27</v>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>27</v>
@@ -3460,15 +3459,15 @@
       <c r="AB10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE10" s="7"/>
+      <c r="AE10" s="8"/>
       <c r="AF10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AG10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AH10" s="4" t="s">
-        <v>27</v>
+      <c r="AH10" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="AI10" s="4" t="s">
         <v>27</v>
@@ -3544,7 +3543,7 @@
       </c>
       <c r="BG10" s="4"/>
       <c r="BH10" s="4"/>
-      <c r="BI10" s="7"/>
+      <c r="BI10" s="8"/>
       <c r="BJ10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3628,7 +3627,7 @@
       </c>
       <c r="CK10" s="4"/>
       <c r="CL10" s="4"/>
-      <c r="CM10" s="7"/>
+      <c r="CM10" s="8"/>
       <c r="CN10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3711,8 +3710,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:118">
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3794,7 +3793,7 @@
       <c r="AB11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE11" s="7"/>
+      <c r="AE11" s="8"/>
       <c r="AF11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3878,7 +3877,7 @@
       </c>
       <c r="BG11" s="4"/>
       <c r="BH11" s="4"/>
-      <c r="BI11" s="7"/>
+      <c r="BI11" s="8"/>
       <c r="BJ11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3962,7 +3961,7 @@
       </c>
       <c r="CK11" s="4"/>
       <c r="CL11" s="4"/>
-      <c r="CM11" s="7"/>
+      <c r="CM11" s="8"/>
       <c r="CN11" s="1" t="s">
         <v>8</v>
       </c>
@@ -4045,8 +4044,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:118">
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -4128,7 +4127,7 @@
       <c r="AB12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE12" s="7"/>
+      <c r="AE12" s="8"/>
       <c r="AF12" s="1" t="s">
         <v>9</v>
       </c>
@@ -4212,7 +4211,7 @@
       </c>
       <c r="BG12" s="4"/>
       <c r="BH12" s="4"/>
-      <c r="BI12" s="7"/>
+      <c r="BI12" s="8"/>
       <c r="BJ12" s="1" t="s">
         <v>9</v>
       </c>
@@ -4296,7 +4295,7 @@
       </c>
       <c r="CK12" s="4"/>
       <c r="CL12" s="4"/>
-      <c r="CM12" s="7"/>
+      <c r="CM12" s="8"/>
       <c r="CN12" s="1" t="s">
         <v>9</v>
       </c>
@@ -4379,8 +4378,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:118">
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4462,7 +4461,7 @@
       <c r="AB13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE13" s="7"/>
+      <c r="AE13" s="8"/>
       <c r="AF13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4546,7 +4545,7 @@
       </c>
       <c r="BG13" s="4"/>
       <c r="BH13" s="4"/>
-      <c r="BI13" s="7"/>
+      <c r="BI13" s="8"/>
       <c r="BJ13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4630,7 +4629,7 @@
       </c>
       <c r="CK13" s="4"/>
       <c r="CL13" s="4"/>
-      <c r="CM13" s="7"/>
+      <c r="CM13" s="8"/>
       <c r="CN13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4713,8 +4712,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:118">
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -4796,7 +4795,7 @@
       <c r="AB14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE14" s="7"/>
+      <c r="AE14" s="8"/>
       <c r="AF14" s="1" t="s">
         <v>11</v>
       </c>
@@ -4880,7 +4879,7 @@
       </c>
       <c r="BG14" s="4"/>
       <c r="BH14" s="4"/>
-      <c r="BI14" s="7"/>
+      <c r="BI14" s="8"/>
       <c r="BJ14" s="1" t="s">
         <v>11</v>
       </c>
@@ -4964,7 +4963,7 @@
       </c>
       <c r="CK14" s="4"/>
       <c r="CL14" s="4"/>
-      <c r="CM14" s="7"/>
+      <c r="CM14" s="8"/>
       <c r="CN14" s="1" t="s">
         <v>11</v>
       </c>
@@ -5047,16 +5046,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:118">
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>27</v>
+      <c r="C15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>27</v>
@@ -5130,7 +5129,7 @@
       <c r="AB15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE15" s="7"/>
+      <c r="AE15" s="8"/>
       <c r="AF15" s="1" t="s">
         <v>12</v>
       </c>
@@ -5214,7 +5213,7 @@
       </c>
       <c r="BG15" s="4"/>
       <c r="BH15" s="4"/>
-      <c r="BI15" s="7"/>
+      <c r="BI15" s="8"/>
       <c r="BJ15" s="1" t="s">
         <v>12</v>
       </c>
@@ -5298,7 +5297,7 @@
       </c>
       <c r="CK15" s="4"/>
       <c r="CL15" s="4"/>
-      <c r="CM15" s="7"/>
+      <c r="CM15" s="8"/>
       <c r="CN15" s="1" t="s">
         <v>12</v>
       </c>
@@ -5381,8 +5380,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:118">
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -5464,7 +5463,7 @@
       <c r="AB16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE16" s="7"/>
+      <c r="AE16" s="8"/>
       <c r="AF16" s="1" t="s">
         <v>13</v>
       </c>
@@ -5548,7 +5547,7 @@
       </c>
       <c r="BG16" s="4"/>
       <c r="BH16" s="4"/>
-      <c r="BI16" s="7"/>
+      <c r="BI16" s="8"/>
       <c r="BJ16" s="1" t="s">
         <v>13</v>
       </c>
@@ -5632,7 +5631,7 @@
       </c>
       <c r="CK16" s="4"/>
       <c r="CL16" s="4"/>
-      <c r="CM16" s="7"/>
+      <c r="CM16" s="8"/>
       <c r="CN16" s="1" t="s">
         <v>13</v>
       </c>
@@ -5715,8 +5714,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:118">
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -5798,7 +5797,7 @@
       <c r="AB17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE17" s="7"/>
+      <c r="AE17" s="8"/>
       <c r="AF17" s="1" t="s">
         <v>14</v>
       </c>
@@ -5882,7 +5881,7 @@
       </c>
       <c r="BG17" s="4"/>
       <c r="BH17" s="4"/>
-      <c r="BI17" s="7"/>
+      <c r="BI17" s="8"/>
       <c r="BJ17" s="1" t="s">
         <v>14</v>
       </c>
@@ -5966,7 +5965,7 @@
       </c>
       <c r="CK17" s="4"/>
       <c r="CL17" s="4"/>
-      <c r="CM17" s="7"/>
+      <c r="CM17" s="8"/>
       <c r="CN17" s="1" t="s">
         <v>14</v>
       </c>
@@ -6049,8 +6048,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:118">
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -6132,7 +6131,7 @@
       <c r="AB18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE18" s="7"/>
+      <c r="AE18" s="8"/>
       <c r="AF18" s="1" t="s">
         <v>15</v>
       </c>
@@ -6216,7 +6215,7 @@
       </c>
       <c r="BG18" s="4"/>
       <c r="BH18" s="4"/>
-      <c r="BI18" s="7"/>
+      <c r="BI18" s="8"/>
       <c r="BJ18" s="1" t="s">
         <v>15</v>
       </c>
@@ -6300,7 +6299,7 @@
       </c>
       <c r="CK18" s="4"/>
       <c r="CL18" s="4"/>
-      <c r="CM18" s="7"/>
+      <c r="CM18" s="8"/>
       <c r="CN18" s="1" t="s">
         <v>15</v>
       </c>
@@ -6383,8 +6382,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:118">
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
@@ -6466,7 +6465,7 @@
       <c r="AB19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE19" s="7"/>
+      <c r="AE19" s="8"/>
       <c r="AF19" s="1" t="s">
         <v>16</v>
       </c>
@@ -6550,7 +6549,7 @@
       </c>
       <c r="BG19" s="4"/>
       <c r="BH19" s="4"/>
-      <c r="BI19" s="7"/>
+      <c r="BI19" s="8"/>
       <c r="BJ19" s="1" t="s">
         <v>16</v>
       </c>
@@ -6634,7 +6633,7 @@
       </c>
       <c r="CK19" s="4"/>
       <c r="CL19" s="4"/>
-      <c r="CM19" s="7"/>
+      <c r="CM19" s="8"/>
       <c r="CN19" s="1" t="s">
         <v>16</v>
       </c>
@@ -6717,8 +6716,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:118">
+      <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
@@ -6800,7 +6799,7 @@
       <c r="AB20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE20" s="7"/>
+      <c r="AE20" s="8"/>
       <c r="AF20" s="1" t="s">
         <v>17</v>
       </c>
@@ -6884,7 +6883,7 @@
       </c>
       <c r="BG20" s="4"/>
       <c r="BH20" s="4"/>
-      <c r="BI20" s="7"/>
+      <c r="BI20" s="8"/>
       <c r="BJ20" s="1" t="s">
         <v>17</v>
       </c>
@@ -6968,7 +6967,7 @@
       </c>
       <c r="CK20" s="4"/>
       <c r="CL20" s="4"/>
-      <c r="CM20" s="7"/>
+      <c r="CM20" s="8"/>
       <c r="CN20" s="1" t="s">
         <v>17</v>
       </c>
@@ -7051,8 +7050,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:118">
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
@@ -7134,7 +7133,7 @@
       <c r="AB21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE21" s="7"/>
+      <c r="AE21" s="8"/>
       <c r="AF21" s="1" t="s">
         <v>18</v>
       </c>
@@ -7218,7 +7217,7 @@
       </c>
       <c r="BG21" s="4"/>
       <c r="BH21" s="4"/>
-      <c r="BI21" s="7"/>
+      <c r="BI21" s="8"/>
       <c r="BJ21" s="1" t="s">
         <v>18</v>
       </c>
@@ -7302,7 +7301,7 @@
       </c>
       <c r="CK21" s="4"/>
       <c r="CL21" s="4"/>
-      <c r="CM21" s="7"/>
+      <c r="CM21" s="8"/>
       <c r="CN21" s="1" t="s">
         <v>18</v>
       </c>
@@ -7385,8 +7384,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:118">
+      <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
@@ -7468,7 +7467,7 @@
       <c r="AB22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE22" s="7"/>
+      <c r="AE22" s="8"/>
       <c r="AF22" s="1" t="s">
         <v>19</v>
       </c>
@@ -7552,7 +7551,7 @@
       </c>
       <c r="BG22" s="4"/>
       <c r="BH22" s="4"/>
-      <c r="BI22" s="7"/>
+      <c r="BI22" s="8"/>
       <c r="BJ22" s="1" t="s">
         <v>19</v>
       </c>
@@ -7636,7 +7635,7 @@
       </c>
       <c r="CK22" s="4"/>
       <c r="CL22" s="4"/>
-      <c r="CM22" s="7"/>
+      <c r="CM22" s="8"/>
       <c r="CN22" s="1" t="s">
         <v>19</v>
       </c>
@@ -7719,8 +7718,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:118">
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
@@ -7802,7 +7801,7 @@
       <c r="AB23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE23" s="7"/>
+      <c r="AE23" s="8"/>
       <c r="AF23" s="1" t="s">
         <v>20</v>
       </c>
@@ -7886,7 +7885,7 @@
       </c>
       <c r="BG23" s="4"/>
       <c r="BH23" s="4"/>
-      <c r="BI23" s="7"/>
+      <c r="BI23" s="8"/>
       <c r="BJ23" s="1" t="s">
         <v>20</v>
       </c>
@@ -7970,7 +7969,7 @@
       </c>
       <c r="CK23" s="4"/>
       <c r="CL23" s="4"/>
-      <c r="CM23" s="7"/>
+      <c r="CM23" s="8"/>
       <c r="CN23" s="1" t="s">
         <v>20</v>
       </c>
@@ -8053,8 +8052,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+    <row r="24" spans="1:118">
+      <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
@@ -8136,7 +8135,7 @@
       <c r="AB24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE24" s="7"/>
+      <c r="AE24" s="8"/>
       <c r="AF24" s="1" t="s">
         <v>21</v>
       </c>
@@ -8220,7 +8219,7 @@
       </c>
       <c r="BG24" s="4"/>
       <c r="BH24" s="4"/>
-      <c r="BI24" s="7"/>
+      <c r="BI24" s="8"/>
       <c r="BJ24" s="1" t="s">
         <v>21</v>
       </c>
@@ -8304,7 +8303,7 @@
       </c>
       <c r="CK24" s="4"/>
       <c r="CL24" s="4"/>
-      <c r="CM24" s="7"/>
+      <c r="CM24" s="8"/>
       <c r="CN24" s="1" t="s">
         <v>21</v>
       </c>
@@ -8387,8 +8386,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+    <row r="25" spans="1:118">
+      <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -8470,7 +8469,7 @@
       <c r="AB25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE25" s="7"/>
+      <c r="AE25" s="8"/>
       <c r="AF25" s="1" t="s">
         <v>22</v>
       </c>
@@ -8554,7 +8553,7 @@
       </c>
       <c r="BG25" s="4"/>
       <c r="BH25" s="4"/>
-      <c r="BI25" s="7"/>
+      <c r="BI25" s="8"/>
       <c r="BJ25" s="1" t="s">
         <v>22</v>
       </c>
@@ -8638,7 +8637,7 @@
       </c>
       <c r="CK25" s="4"/>
       <c r="CL25" s="4"/>
-      <c r="CM25" s="7"/>
+      <c r="CM25" s="8"/>
       <c r="CN25" s="1" t="s">
         <v>22</v>
       </c>
@@ -8721,8 +8720,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+    <row r="26" spans="1:118">
+      <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
@@ -8804,7 +8803,7 @@
       <c r="AB26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE26" s="7"/>
+      <c r="AE26" s="8"/>
       <c r="AF26" s="1" t="s">
         <v>23</v>
       </c>
@@ -8888,7 +8887,7 @@
       </c>
       <c r="BG26" s="4"/>
       <c r="BH26" s="4"/>
-      <c r="BI26" s="7"/>
+      <c r="BI26" s="8"/>
       <c r="BJ26" s="1" t="s">
         <v>23</v>
       </c>
@@ -8972,7 +8971,7 @@
       </c>
       <c r="CK26" s="4"/>
       <c r="CL26" s="4"/>
-      <c r="CM26" s="7"/>
+      <c r="CM26" s="8"/>
       <c r="CN26" s="1" t="s">
         <v>23</v>
       </c>
@@ -9055,8 +9054,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:118">
+      <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
@@ -9138,7 +9137,7 @@
       <c r="AB27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE27" s="7"/>
+      <c r="AE27" s="8"/>
       <c r="AF27" s="1" t="s">
         <v>24</v>
       </c>
@@ -9222,7 +9221,7 @@
       </c>
       <c r="BG27" s="4"/>
       <c r="BH27" s="4"/>
-      <c r="BI27" s="7"/>
+      <c r="BI27" s="8"/>
       <c r="BJ27" s="1" t="s">
         <v>24</v>
       </c>
@@ -9306,7 +9305,7 @@
       </c>
       <c r="CK27" s="4"/>
       <c r="CL27" s="4"/>
-      <c r="CM27" s="7"/>
+      <c r="CM27" s="8"/>
       <c r="CN27" s="1" t="s">
         <v>24</v>
       </c>
@@ -9389,8 +9388,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:118">
+      <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
@@ -9472,7 +9471,7 @@
       <c r="AB28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE28" s="7"/>
+      <c r="AE28" s="8"/>
       <c r="AF28" s="1" t="s">
         <v>25</v>
       </c>
@@ -9556,7 +9555,7 @@
       </c>
       <c r="BG28" s="4"/>
       <c r="BH28" s="4"/>
-      <c r="BI28" s="7"/>
+      <c r="BI28" s="8"/>
       <c r="BJ28" s="1" t="s">
         <v>25</v>
       </c>
@@ -9640,7 +9639,7 @@
       </c>
       <c r="CK28" s="4"/>
       <c r="CL28" s="4"/>
-      <c r="CM28" s="7"/>
+      <c r="CM28" s="8"/>
       <c r="CN28" s="1" t="s">
         <v>25</v>
       </c>
@@ -9723,8 +9722,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:118">
+      <c r="A29" s="8"/>
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
@@ -9806,7 +9805,7 @@
       <c r="AB29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE29" s="7"/>
+      <c r="AE29" s="8"/>
       <c r="AF29" s="1" t="s">
         <v>26</v>
       </c>
@@ -9890,7 +9889,7 @@
       </c>
       <c r="BG29" s="4"/>
       <c r="BH29" s="4"/>
-      <c r="BI29" s="7"/>
+      <c r="BI29" s="8"/>
       <c r="BJ29" s="1" t="s">
         <v>26</v>
       </c>
@@ -9974,7 +9973,7 @@
       </c>
       <c r="CK29" s="4"/>
       <c r="CL29" s="4"/>
-      <c r="CM29" s="7"/>
+      <c r="CM29" s="8"/>
       <c r="CN29" s="1" t="s">
         <v>26</v>
       </c>
@@ -10057,8 +10056,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
+    <row r="30" spans="1:118">
+      <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
@@ -10140,7 +10139,7 @@
       <c r="AB30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE30" s="7"/>
+      <c r="AE30" s="8"/>
       <c r="AF30" s="1" t="s">
         <v>32</v>
       </c>
@@ -10224,7 +10223,7 @@
       </c>
       <c r="BG30" s="4"/>
       <c r="BH30" s="4"/>
-      <c r="BI30" s="7"/>
+      <c r="BI30" s="8"/>
       <c r="BJ30" s="1" t="s">
         <v>32</v>
       </c>
@@ -10308,7 +10307,7 @@
       </c>
       <c r="CK30" s="4"/>
       <c r="CL30" s="4"/>
-      <c r="CM30" s="7"/>
+      <c r="CM30" s="8"/>
       <c r="CN30" s="1" t="s">
         <v>32</v>
       </c>
@@ -10391,8 +10390,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:118">
+      <c r="A31" s="8"/>
       <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
@@ -10474,7 +10473,7 @@
       <c r="AB31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE31" s="7"/>
+      <c r="AE31" s="8"/>
       <c r="AF31" s="1" t="s">
         <v>33</v>
       </c>
@@ -10558,7 +10557,7 @@
       </c>
       <c r="BG31" s="4"/>
       <c r="BH31" s="4"/>
-      <c r="BI31" s="7"/>
+      <c r="BI31" s="8"/>
       <c r="BJ31" s="1" t="s">
         <v>33</v>
       </c>
@@ -10642,7 +10641,7 @@
       </c>
       <c r="CK31" s="4"/>
       <c r="CL31" s="4"/>
-      <c r="CM31" s="7"/>
+      <c r="CM31" s="8"/>
       <c r="CN31" s="1" t="s">
         <v>33</v>
       </c>
@@ -10725,8 +10724,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
+    <row r="32" spans="1:118">
+      <c r="A32" s="8"/>
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
@@ -10808,7 +10807,7 @@
       <c r="AB32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE32" s="7"/>
+      <c r="AE32" s="8"/>
       <c r="AF32" s="1" t="s">
         <v>34</v>
       </c>
@@ -10892,7 +10891,7 @@
       </c>
       <c r="BG32" s="4"/>
       <c r="BH32" s="4"/>
-      <c r="BI32" s="7"/>
+      <c r="BI32" s="8"/>
       <c r="BJ32" s="1" t="s">
         <v>34</v>
       </c>
@@ -10976,7 +10975,7 @@
       </c>
       <c r="CK32" s="4"/>
       <c r="CL32" s="4"/>
-      <c r="CM32" s="7"/>
+      <c r="CM32" s="8"/>
       <c r="CN32" s="1" t="s">
         <v>34</v>
       </c>
@@ -11059,8 +11058,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:118">
+      <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
@@ -11142,7 +11141,7 @@
       <c r="AB33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE33" s="7"/>
+      <c r="AE33" s="8"/>
       <c r="AF33" s="1" t="s">
         <v>35</v>
       </c>
@@ -11226,7 +11225,7 @@
       </c>
       <c r="BG33" s="4"/>
       <c r="BH33" s="4"/>
-      <c r="BI33" s="7"/>
+      <c r="BI33" s="8"/>
       <c r="BJ33" s="1" t="s">
         <v>35</v>
       </c>
@@ -11310,7 +11309,7 @@
       </c>
       <c r="CK33" s="4"/>
       <c r="CL33" s="4"/>
-      <c r="CM33" s="7"/>
+      <c r="CM33" s="8"/>
       <c r="CN33" s="1" t="s">
         <v>35</v>
       </c>
@@ -11393,8 +11392,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+    <row r="34" spans="1:118">
+      <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
@@ -11476,7 +11475,7 @@
       <c r="AB34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE34" s="7"/>
+      <c r="AE34" s="8"/>
       <c r="AF34" s="1" t="s">
         <v>36</v>
       </c>
@@ -11560,7 +11559,7 @@
       </c>
       <c r="BG34" s="4"/>
       <c r="BH34" s="4"/>
-      <c r="BI34" s="7"/>
+      <c r="BI34" s="8"/>
       <c r="BJ34" s="1" t="s">
         <v>36</v>
       </c>
@@ -11644,7 +11643,7 @@
       </c>
       <c r="CK34" s="4"/>
       <c r="CL34" s="4"/>
-      <c r="CM34" s="7"/>
+      <c r="CM34" s="8"/>
       <c r="CN34" s="1" t="s">
         <v>36</v>
       </c>
@@ -11727,8 +11726,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+    <row r="35" spans="1:118">
+      <c r="A35" s="8"/>
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
@@ -11810,7 +11809,7 @@
       <c r="AB35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE35" s="7"/>
+      <c r="AE35" s="8"/>
       <c r="AF35" s="1" t="s">
         <v>37</v>
       </c>
@@ -11894,7 +11893,7 @@
       </c>
       <c r="BG35" s="4"/>
       <c r="BH35" s="4"/>
-      <c r="BI35" s="7"/>
+      <c r="BI35" s="8"/>
       <c r="BJ35" s="1" t="s">
         <v>37</v>
       </c>
@@ -11978,7 +11977,7 @@
       </c>
       <c r="CK35" s="4"/>
       <c r="CL35" s="4"/>
-      <c r="CM35" s="7"/>
+      <c r="CM35" s="8"/>
       <c r="CN35" s="1" t="s">
         <v>37</v>
       </c>
@@ -12061,8 +12060,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
+    <row r="36" spans="1:118">
+      <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
@@ -12144,7 +12143,7 @@
       <c r="AB36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE36" s="7"/>
+      <c r="AE36" s="8"/>
       <c r="AF36" s="1" t="s">
         <v>38</v>
       </c>
@@ -12228,7 +12227,7 @@
       </c>
       <c r="BG36" s="4"/>
       <c r="BH36" s="4"/>
-      <c r="BI36" s="7"/>
+      <c r="BI36" s="8"/>
       <c r="BJ36" s="1" t="s">
         <v>38</v>
       </c>
@@ -12312,7 +12311,7 @@
       </c>
       <c r="CK36" s="4"/>
       <c r="CL36" s="4"/>
-      <c r="CM36" s="7"/>
+      <c r="CM36" s="8"/>
       <c r="CN36" s="1" t="s">
         <v>38</v>
       </c>
@@ -12395,8 +12394,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
+    <row r="37" spans="1:118">
+      <c r="A37" s="8"/>
       <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
@@ -12478,7 +12477,7 @@
       <c r="AB37" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE37" s="7"/>
+      <c r="AE37" s="8"/>
       <c r="AF37" s="1" t="s">
         <v>39</v>
       </c>
@@ -12562,7 +12561,7 @@
       </c>
       <c r="BG37" s="4"/>
       <c r="BH37" s="4"/>
-      <c r="BI37" s="7"/>
+      <c r="BI37" s="8"/>
       <c r="BJ37" s="1" t="s">
         <v>39</v>
       </c>
@@ -12646,7 +12645,7 @@
       </c>
       <c r="CK37" s="4"/>
       <c r="CL37" s="4"/>
-      <c r="CM37" s="7"/>
+      <c r="CM37" s="8"/>
       <c r="CN37" s="1" t="s">
         <v>39</v>
       </c>
@@ -12729,8 +12728,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
+    <row r="38" spans="1:118">
+      <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
@@ -12812,7 +12811,7 @@
       <c r="AB38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE38" s="7"/>
+      <c r="AE38" s="8"/>
       <c r="AF38" s="1" t="s">
         <v>40</v>
       </c>
@@ -12896,7 +12895,7 @@
       </c>
       <c r="BG38" s="4"/>
       <c r="BH38" s="4"/>
-      <c r="BI38" s="7"/>
+      <c r="BI38" s="8"/>
       <c r="BJ38" s="1" t="s">
         <v>40</v>
       </c>
@@ -12980,7 +12979,7 @@
       </c>
       <c r="CK38" s="4"/>
       <c r="CL38" s="4"/>
-      <c r="CM38" s="7"/>
+      <c r="CM38" s="8"/>
       <c r="CN38" s="1" t="s">
         <v>40</v>
       </c>
@@ -13063,8 +13062,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
+    <row r="39" spans="1:118">
+      <c r="A39" s="8"/>
       <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
@@ -13146,7 +13145,7 @@
       <c r="AB39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE39" s="7"/>
+      <c r="AE39" s="8"/>
       <c r="AF39" s="1" t="s">
         <v>41</v>
       </c>
@@ -13230,7 +13229,7 @@
       </c>
       <c r="BG39" s="4"/>
       <c r="BH39" s="4"/>
-      <c r="BI39" s="7"/>
+      <c r="BI39" s="8"/>
       <c r="BJ39" s="1" t="s">
         <v>41</v>
       </c>
@@ -13314,7 +13313,7 @@
       </c>
       <c r="CK39" s="4"/>
       <c r="CL39" s="4"/>
-      <c r="CM39" s="7"/>
+      <c r="CM39" s="8"/>
       <c r="CN39" s="1" t="s">
         <v>41</v>
       </c>
@@ -13397,8 +13396,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
+    <row r="40" spans="1:118">
+      <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
@@ -13480,7 +13479,7 @@
       <c r="AB40" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE40" s="7"/>
+      <c r="AE40" s="8"/>
       <c r="AF40" s="1" t="s">
         <v>42</v>
       </c>
@@ -13564,7 +13563,7 @@
       </c>
       <c r="BG40" s="4"/>
       <c r="BH40" s="4"/>
-      <c r="BI40" s="7"/>
+      <c r="BI40" s="8"/>
       <c r="BJ40" s="1" t="s">
         <v>42</v>
       </c>
@@ -13648,7 +13647,7 @@
       </c>
       <c r="CK40" s="4"/>
       <c r="CL40" s="4"/>
-      <c r="CM40" s="7"/>
+      <c r="CM40" s="8"/>
       <c r="CN40" s="1" t="s">
         <v>42</v>
       </c>
@@ -13731,8 +13730,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
+    <row r="41" spans="1:118">
+      <c r="A41" s="8"/>
       <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
@@ -13814,7 +13813,7 @@
       <c r="AB41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE41" s="7"/>
+      <c r="AE41" s="8"/>
       <c r="AF41" s="1" t="s">
         <v>43</v>
       </c>
@@ -13898,7 +13897,7 @@
       </c>
       <c r="BG41" s="4"/>
       <c r="BH41" s="4"/>
-      <c r="BI41" s="7"/>
+      <c r="BI41" s="8"/>
       <c r="BJ41" s="1" t="s">
         <v>43</v>
       </c>
@@ -13982,7 +13981,7 @@
       </c>
       <c r="CK41" s="4"/>
       <c r="CL41" s="4"/>
-      <c r="CM41" s="7"/>
+      <c r="CM41" s="8"/>
       <c r="CN41" s="1" t="s">
         <v>43</v>
       </c>
@@ -14065,8 +14064,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
+    <row r="42" spans="1:118">
+      <c r="A42" s="8"/>
       <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
@@ -14148,7 +14147,7 @@
       <c r="AB42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE42" s="7"/>
+      <c r="AE42" s="8"/>
       <c r="AF42" s="1" t="s">
         <v>44</v>
       </c>
@@ -14232,7 +14231,7 @@
       </c>
       <c r="BG42" s="4"/>
       <c r="BH42" s="4"/>
-      <c r="BI42" s="7"/>
+      <c r="BI42" s="8"/>
       <c r="BJ42" s="1" t="s">
         <v>44</v>
       </c>
@@ -14316,7 +14315,7 @@
       </c>
       <c r="CK42" s="4"/>
       <c r="CL42" s="4"/>
-      <c r="CM42" s="7"/>
+      <c r="CM42" s="8"/>
       <c r="CN42" s="1" t="s">
         <v>44</v>
       </c>
@@ -14399,8 +14398,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
+    <row r="43" spans="1:118">
+      <c r="A43" s="8"/>
       <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
@@ -14482,7 +14481,7 @@
       <c r="AB43" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE43" s="7"/>
+      <c r="AE43" s="8"/>
       <c r="AF43" s="1" t="s">
         <v>45</v>
       </c>
@@ -14566,7 +14565,7 @@
       </c>
       <c r="BG43" s="4"/>
       <c r="BH43" s="4"/>
-      <c r="BI43" s="7"/>
+      <c r="BI43" s="8"/>
       <c r="BJ43" s="1" t="s">
         <v>45</v>
       </c>
@@ -14650,7 +14649,7 @@
       </c>
       <c r="CK43" s="4"/>
       <c r="CL43" s="4"/>
-      <c r="CM43" s="7"/>
+      <c r="CM43" s="8"/>
       <c r="CN43" s="1" t="s">
         <v>45</v>
       </c>
@@ -14733,8 +14732,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
+    <row r="44" spans="1:118">
+      <c r="A44" s="8"/>
       <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
@@ -14816,7 +14815,7 @@
       <c r="AB44" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE44" s="7"/>
+      <c r="AE44" s="8"/>
       <c r="AF44" s="1" t="s">
         <v>46</v>
       </c>
@@ -14900,7 +14899,7 @@
       </c>
       <c r="BG44" s="4"/>
       <c r="BH44" s="4"/>
-      <c r="BI44" s="7"/>
+      <c r="BI44" s="8"/>
       <c r="BJ44" s="1" t="s">
         <v>46</v>
       </c>
@@ -14984,7 +14983,7 @@
       </c>
       <c r="CK44" s="4"/>
       <c r="CL44" s="4"/>
-      <c r="CM44" s="7"/>
+      <c r="CM44" s="8"/>
       <c r="CN44" s="1" t="s">
         <v>46</v>
       </c>
@@ -15067,8 +15066,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
+    <row r="45" spans="1:118">
+      <c r="A45" s="8"/>
       <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
@@ -15150,7 +15149,7 @@
       <c r="AB45" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE45" s="7"/>
+      <c r="AE45" s="8"/>
       <c r="AF45" s="1" t="s">
         <v>47</v>
       </c>
@@ -15234,7 +15233,7 @@
       </c>
       <c r="BG45" s="4"/>
       <c r="BH45" s="4"/>
-      <c r="BI45" s="7"/>
+      <c r="BI45" s="8"/>
       <c r="BJ45" s="1" t="s">
         <v>47</v>
       </c>
@@ -15318,7 +15317,7 @@
       </c>
       <c r="CK45" s="4"/>
       <c r="CL45" s="4"/>
-      <c r="CM45" s="7"/>
+      <c r="CM45" s="8"/>
       <c r="CN45" s="1" t="s">
         <v>47</v>
       </c>
@@ -15401,8 +15400,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
+    <row r="46" spans="1:118">
+      <c r="A46" s="8"/>
       <c r="B46" s="1" t="s">
         <v>48</v>
       </c>
@@ -15484,7 +15483,7 @@
       <c r="AB46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE46" s="7"/>
+      <c r="AE46" s="8"/>
       <c r="AF46" s="1" t="s">
         <v>48</v>
       </c>
@@ -15568,7 +15567,7 @@
       </c>
       <c r="BG46" s="4"/>
       <c r="BH46" s="4"/>
-      <c r="BI46" s="7"/>
+      <c r="BI46" s="8"/>
       <c r="BJ46" s="1" t="s">
         <v>48</v>
       </c>
@@ -15652,7 +15651,7 @@
       </c>
       <c r="CK46" s="4"/>
       <c r="CL46" s="4"/>
-      <c r="CM46" s="7"/>
+      <c r="CM46" s="8"/>
       <c r="CN46" s="1" t="s">
         <v>48</v>
       </c>
@@ -15735,8 +15734,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
+    <row r="47" spans="1:118">
+      <c r="A47" s="8"/>
       <c r="B47" s="1" t="s">
         <v>49</v>
       </c>
@@ -15818,7 +15817,7 @@
       <c r="AB47" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE47" s="7"/>
+      <c r="AE47" s="8"/>
       <c r="AF47" s="1" t="s">
         <v>49</v>
       </c>
@@ -15902,7 +15901,7 @@
       </c>
       <c r="BG47" s="4"/>
       <c r="BH47" s="4"/>
-      <c r="BI47" s="7"/>
+      <c r="BI47" s="8"/>
       <c r="BJ47" s="1" t="s">
         <v>49</v>
       </c>
@@ -15986,7 +15985,7 @@
       </c>
       <c r="CK47" s="4"/>
       <c r="CL47" s="4"/>
-      <c r="CM47" s="7"/>
+      <c r="CM47" s="8"/>
       <c r="CN47" s="1" t="s">
         <v>49</v>
       </c>
@@ -16069,8 +16068,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
+    <row r="48" spans="1:118">
+      <c r="A48" s="8"/>
       <c r="B48" s="1" t="s">
         <v>50</v>
       </c>
@@ -16152,7 +16151,7 @@
       <c r="AB48" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE48" s="7"/>
+      <c r="AE48" s="8"/>
       <c r="AF48" s="1" t="s">
         <v>50</v>
       </c>
@@ -16236,7 +16235,7 @@
       </c>
       <c r="BG48" s="4"/>
       <c r="BH48" s="4"/>
-      <c r="BI48" s="7"/>
+      <c r="BI48" s="8"/>
       <c r="BJ48" s="1" t="s">
         <v>50</v>
       </c>
@@ -16320,7 +16319,7 @@
       </c>
       <c r="CK48" s="4"/>
       <c r="CL48" s="4"/>
-      <c r="CM48" s="7"/>
+      <c r="CM48" s="8"/>
       <c r="CN48" s="1" t="s">
         <v>50</v>
       </c>
@@ -16403,8 +16402,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
+    <row r="49" spans="1:118">
+      <c r="A49" s="8"/>
       <c r="B49" s="1" t="s">
         <v>51</v>
       </c>
@@ -16486,7 +16485,7 @@
       <c r="AB49" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE49" s="7"/>
+      <c r="AE49" s="8"/>
       <c r="AF49" s="1" t="s">
         <v>51</v>
       </c>
@@ -16570,7 +16569,7 @@
       </c>
       <c r="BG49" s="4"/>
       <c r="BH49" s="4"/>
-      <c r="BI49" s="7"/>
+      <c r="BI49" s="8"/>
       <c r="BJ49" s="1" t="s">
         <v>51</v>
       </c>
@@ -16654,7 +16653,7 @@
       </c>
       <c r="CK49" s="4"/>
       <c r="CL49" s="4"/>
-      <c r="CM49" s="7"/>
+      <c r="CM49" s="8"/>
       <c r="CN49" s="1" t="s">
         <v>51</v>
       </c>
@@ -16754,5 +16753,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>